--- a/Footer/Test Cases  - Footer .xlsx
+++ b/Footer/Test Cases  - Footer .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\OTHERS\AcademyBugs - Testing\Footer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\Software Testing\AcademyBugs - Manual Testing\Footer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33757E7-3AFB-4C39-9F87-DC9D5DC60727}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159A66AD-F561-4940-941E-D07D9591AD8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,20 +216,6 @@
     <t>N/E</t>
   </si>
   <si>
-    <t>To be in the findbugs page</t>
-  </si>
-  <si>
-    <t>To be in the Types of Bugs
- page</t>
-  </si>
-  <si>
-    <t>To be in  the Examples of Bugs
- page</t>
-  </si>
-  <si>
-    <t>To be in the Report Bugs page</t>
-  </si>
-  <si>
     <t>link redirect to the page</t>
   </si>
   <si>
@@ -449,6 +435,18 @@
   </si>
   <si>
     <t>links Color Changed From Black To Blue When Hover On them except logo</t>
+  </si>
+  <si>
+    <t>Ensure the Footer exists on the Examples of Bugs page</t>
+  </si>
+  <si>
+    <t>Ensure the Footer exists on the Types of Bugs page</t>
+  </si>
+  <si>
+    <t>Ensure the Footer exists on the find bugs page</t>
+  </si>
+  <si>
+    <t>Ensure the Footer exists on the Report Bugs page</t>
   </si>
 </sst>
 </file>
@@ -456,7 +454,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -687,6 +685,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -696,23 +703,32 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,32 +739,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,8 +1065,8 @@
   </sheetPr>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:I4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1076,7 +1074,7 @@
     <col min="1" max="1" width="11.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="51.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="36.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="24" style="5" customWidth="1"/>
@@ -1085,77 +1083,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="32">
+      <c r="B5" s="22"/>
+      <c r="C5" s="26">
         <v>45780</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" ht="39.75" customHeight="1">
       <c r="A6" s="7" t="s">
@@ -1190,26 +1188,26 @@
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>59</v>
+      <c r="B7" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F7" s="10"/>
-      <c r="G7" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="G7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1217,77 +1215,77 @@
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="9" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F8" s="11"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="122.25" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="118.5" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="9" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" ht="129" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="G11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1295,75 +1293,75 @@
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="9" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" ht="150" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="9" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="109.5" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="9" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F14" s="12"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" ht="102" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="19" t="s">
-        <v>68</v>
+      <c r="B15" s="32"/>
+      <c r="C15" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1371,319 +1369,319 @@
       <c r="A16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="9" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="14"/>
+        <v>66</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="20"/>
+        <v>31</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="9" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="14"/>
+        <v>67</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="9" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="15"/>
+        <v>68</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:10" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="19" t="s">
-        <v>73</v>
+        <v>33</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="E19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="13" t="s">
+      <c r="H19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="20"/>
+        <v>34</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="9" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="14"/>
+        <v>71</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:10" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="20"/>
+        <v>35</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="9" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="14"/>
+        <v>72</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:10" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="21"/>
+        <v>36</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="9" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="15"/>
+        <v>73</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>89</v>
+        <v>37</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="13" t="s">
+      <c r="G23" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="16" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="9" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F24" s="11"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" s="5" customFormat="1" ht="121.5" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="20"/>
+        <v>39</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="9" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F25" s="11"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" s="5" customFormat="1" ht="93.75">
       <c r="A26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="20"/>
+        <v>40</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="9" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="96" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="93.75">
-      <c r="A27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="E27" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="13" t="s">
+      <c r="G27" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="93.75" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="20"/>
+        <v>49</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="9" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F28" s="11"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:10" ht="93.75" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="20"/>
+        <v>50</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="9" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F29" s="11"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="17"/>
     </row>
     <row r="30" spans="1:10" ht="93.75">
       <c r="A30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="20"/>
+        <v>51</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="9" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="18"/>
     </row>
     <row r="31" spans="1:10" ht="12.75">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:10" ht="12.75">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
     </row>
     <row r="33" spans="1:9" ht="12.75">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="12.75"/>
     <row r="35" spans="1:9" ht="12.75"/>
@@ -1701,21 +1699,14 @@
     <row r="47" spans="1:9" ht="12.75"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="B11:B22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
     <mergeCell ref="A31:I33"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="G7:G10"/>
@@ -1732,14 +1723,21 @@
     <mergeCell ref="F15:F18"/>
     <mergeCell ref="G15:G18"/>
     <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="B11:B22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="I27:I30"/>
   </mergeCells>
   <conditionalFormatting sqref="I7 I11 I15 I19">
     <cfRule type="cellIs" dxfId="11" priority="37" operator="equal">
@@ -1783,7 +1781,7 @@
       <formula>"N/E"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11 I15 I19">
+  <conditionalFormatting sqref="I15 I11 I19">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
